--- a/data/sis_example.xlsx
+++ b/data/sis_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Student_Information_System/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{1F869EF7-CD7F-485E-8A9D-9C83BB253930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14EAE6AB-36BE-41EE-88D9-FEC1F49C31F6}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1F869EF7-CD7F-485E-8A9D-9C83BB253930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6AC14E9-4676-454C-9B6F-408C9B7ACECD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic_info" sheetId="21" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6981" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6981" uniqueCount="675">
   <si>
     <t>Semester/Term</t>
   </si>
@@ -2057,9 +2057,6 @@
     <t>Minor</t>
   </si>
   <si>
-    <t>Mathematics_rayla</t>
-  </si>
-  <si>
     <t>Computer Science</t>
   </si>
   <si>
@@ -2073,6 +2070,12 @@
   </si>
   <si>
     <t>Recitation Attendance</t>
+  </si>
+  <si>
+    <t>Mathematics_MS</t>
+  </si>
+  <si>
+    <t>Mathematics_BS</t>
   </si>
 </sst>
 </file>
@@ -2177,55 +2180,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -2297,102 +2252,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFDDF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDDF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFBF00FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2681,9 +2540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9104CF2-EB15-45A1-84DA-ECD5B07A0A45}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2717,7 +2576,7 @@
         <v>664</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C3" t="s">
         <v>665</v>
@@ -2728,7 +2587,7 @@
         <v>664</v>
       </c>
       <c r="B4" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C4" t="s">
         <v>666</v>
@@ -2739,7 +2598,7 @@
         <v>667</v>
       </c>
       <c r="B5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2747,7 +2606,7 @@
         <v>667</v>
       </c>
       <c r="B6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -3903,13 +3762,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:F100">
-    <cfRule type="expression" dxfId="14" priority="97">
+    <cfRule type="expression" dxfId="8" priority="97">
       <formula>ISNUMBER(SEARCH("Fall", $A2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="98">
+    <cfRule type="expression" dxfId="7" priority="98">
       <formula>ISNUMBER(SEARCH("Spring", $A2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="99">
+    <cfRule type="expression" dxfId="6" priority="99">
       <formula>ISNUMBER(SEARCH("Summer", $A2))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3922,9 +3781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D25A6C-9C01-47FF-B951-24BD97D1576D}">
   <dimension ref="A1:F264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
+      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5987,7 +5846,7 @@
         <v>103</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F104" s="22">
         <v>5</v>
@@ -6007,7 +5866,7 @@
         <v>103</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F105" s="22">
         <v>5</v>
@@ -6603,7 +6462,7 @@
         <v>109</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F136" s="22">
         <v>6</v>
@@ -7466,13 +7325,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:F1000">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>AND(NOT(ISBLANK($A2)), NOT(ISBLANK($B2)), NOT(ISBLANK($C2)), NOT(ISBLANK($D2)), OR(ISBLANK($E2), ISBLANK($F2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="586">
+    <cfRule type="expression" dxfId="4" priority="586">
       <formula>ISODD(SUMPRODUCT(1/COUNTIF($B2:$B$5,$B2:$B$5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="587">
+    <cfRule type="expression" dxfId="3" priority="587">
       <formula>ISEVEN(SUMPRODUCT(1/COUNTIF($B2:$B$5,$B2:$B$5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17833,7 +17692,7 @@
         <v>103</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
@@ -17850,7 +17709,7 @@
         <v>103</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
@@ -20703,7 +20562,7 @@
         <v>109</v>
       </c>
       <c r="E593" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.3">
@@ -24511,13 +24370,13 @@
   </sheetData>
   <autoFilter ref="A1:H273" xr:uid="{7F572070-53DE-4A6A-AED7-3EE3F67EBCFF}"/>
   <conditionalFormatting sqref="A2:H1050">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(NOT(ISBLANK($A2)), NOT(ISBLANK($B2)), NOT(ISBLANK($C2)), NOT(ISBLANK($D2)), (ISBLANK($E2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="574">
+    <cfRule type="expression" dxfId="1" priority="574">
       <formula>AND(NOT(ISBLANK($A2)), NOT(ISBLANK($B2)), NOT(ISBLANK($C2)), NOT(ISBLANK($D2)), NOT(ISBLANK($E2)), ISBLANK($F2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="575">
+    <cfRule type="expression" dxfId="0" priority="575">
       <formula>NOT(ISBLANK($F2))</formula>
     </cfRule>
   </conditionalFormatting>
